--- a/Output/28_02_2023/EOR_AH001256.xlsx
+++ b/Output/28_02_2023/EOR_AH001256.xlsx
@@ -31,13 +31,13 @@
     <x:t>AH001256</x:t>
   </x:si>
   <x:si>
-    <x:t>Olimpiadas o traslado a un nuevo evento o reubicación</x:t>
+    <x:t>Evento o ReubicaciónEvento o Reubicación...Evento o Traslado...No se han podido cargar todos los resultadosReintentarIntentándolo de nuevo...</x:t>
   </x:si>
   <x:si>
     <x:t>EOR</x:t>
   </x:si>
   <x:si>
-    <x:t>Olimpiadas o un paso a un nuevo Evento u Olimpiadas o un paso a un nuevo Evento u Olimpiadas o un paso a un nuevo Evento u Olimpiadas</x:t>
+    <x:t>Olimpiadas o mudarse a un nuevo edificio</x:t>
   </x:si>
 </x:sst>
 </file>
